--- a/biology/Botanique/Nardus_stricta/Nardus_stricta.xlsx
+++ b/biology/Botanique/Nardus_stricta/Nardus_stricta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nardus stricta, le nard raide, est une espèce de plantes herbacées de la famille des Poaceae (Graminées). C'est la seule espèce actuellement acceptée du genre Nardus.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nardus dérive de nardos, nom grec de cette plante.
 </t>
@@ -542,10 +556,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Appelée aussi poil de bouc, cette graminée est considérée comme une mauvaise herbe dans les pâtures de montagne où elle peut devenir très envahissante et remplacer peu à peu les herbes comestibles. Sa faible appétence, surtout avant le stade épiaison (faibles palatabilité, qualité nutritionnelle et digestibilité), explique son refus par le bétail  qui peut représenter jusqu'à 80 % de la productivité primaire annuelle des parcours montagnards[1].
-Hémicryptophyte, cette xérophyte sclérophylle a une adaptation originale pour résister à la sécheresse : ses feuilles s’enroulent dès que leur teneur en eau s’abaisse en dessous de 85 %, minimum caractéristique de l'espèce[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appelée aussi poil de bouc, cette graminée est considérée comme une mauvaise herbe dans les pâtures de montagne où elle peut devenir très envahissante et remplacer peu à peu les herbes comestibles. Sa faible appétence, surtout avant le stade épiaison (faibles palatabilité, qualité nutritionnelle et digestibilité), explique son refus par le bétail  qui peut représenter jusqu'à 80 % de la productivité primaire annuelle des parcours montagnards.
+Hémicryptophyte, cette xérophyte sclérophylle a une adaptation originale pour résister à la sécheresse : ses feuilles s’enroulent dès que leur teneur en eau s’abaisse en dessous de 85 %, minimum caractéristique de l'espèce.
 </t>
         </is>
       </c>
